--- a/afstanden_stations.xlsx
+++ b/afstanden_stations.xlsx
@@ -10,8 +10,7 @@
     <sheet name="Afstand (km)" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Rijtijd (min)" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Deadhead matrix" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Ritvalidatie" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="JSON data" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="JSON data" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -43,7 +42,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -54,24 +53,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="004472C4"/>
         <bgColor rgb="004472C4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
-        <bgColor rgb="00FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFEB9C"/>
-        <bgColor rgb="00FFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C6EFCE"/>
-        <bgColor rgb="00C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -87,7 +68,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -97,12 +78,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -508,12 +483,12 @@
     <row r="3">
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>amersfoort</t>
+          <t>amersfoort centraal</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>arnhem</t>
+          <t>arnhem centraal</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -528,17 +503,17 @@
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>den_dolder</t>
+          <t>den dolder</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>driebergen</t>
+          <t>driebergen-zeist</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>ede</t>
+          <t>ede-wageningen</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
@@ -548,52 +523,52 @@
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
+          <t>hilversum</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
           <t>houten</t>
         </is>
       </c>
-      <c r="K3" s="2" t="inlineStr">
+      <c r="L3" s="2" t="inlineStr">
         <is>
           <t>houten_vinex</t>
         </is>
       </c>
-      <c r="L3" s="2" t="inlineStr">
+      <c r="M3" s="2" t="inlineStr">
         <is>
           <t>maarn</t>
         </is>
       </c>
-      <c r="M3" s="2" t="inlineStr">
+      <c r="N3" s="2" t="inlineStr">
         <is>
           <t>rhenen</t>
         </is>
       </c>
-      <c r="N3" s="2" t="inlineStr">
-        <is>
-          <t>utrecht</t>
-        </is>
-      </c>
       <c r="O3" s="2" t="inlineStr">
         <is>
-          <t>utrecht_overvecht</t>
+          <t>utrecht centraal</t>
         </is>
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>veenendaal</t>
+          <t>utrecht overvecht</t>
         </is>
       </c>
       <c r="Q3" s="2" t="inlineStr">
         <is>
-          <t>veenendaal_centrum</t>
+          <t>veenendaal centrum</t>
         </is>
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
-          <t>veenendaal_klomp</t>
+          <t>veenendaal west</t>
         </is>
       </c>
       <c r="S3" s="2" t="inlineStr">
         <is>
-          <t>veenendaal_west</t>
+          <t>veenendaal-de klomp</t>
         </is>
       </c>
       <c r="T3" s="2" t="inlineStr">
@@ -605,7 +580,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>amersfoort</t>
+          <t>amersfoort centraal</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -631,7 +606,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>arnhem</t>
+          <t>arnhem centraal</t>
         </is>
       </c>
       <c r="B5" s="4" t="n"/>
@@ -709,7 +684,7 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>den_dolder</t>
+          <t>den dolder</t>
         </is>
       </c>
       <c r="B8" s="4" t="n"/>
@@ -735,7 +710,7 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>driebergen</t>
+          <t>driebergen-zeist</t>
         </is>
       </c>
       <c r="B9" s="4" t="n"/>
@@ -761,7 +736,7 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>ede</t>
+          <t>ede-wageningen</t>
         </is>
       </c>
       <c r="B10" s="4" t="n"/>
@@ -813,7 +788,7 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>houten</t>
+          <t>hilversum</t>
         </is>
       </c>
       <c r="B12" s="4" t="n"/>
@@ -839,7 +814,7 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>houten_vinex</t>
+          <t>houten</t>
         </is>
       </c>
       <c r="B13" s="4" t="n"/>
@@ -865,7 +840,7 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>maarn</t>
+          <t>houten_vinex</t>
         </is>
       </c>
       <c r="B14" s="4" t="n"/>
@@ -891,7 +866,7 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>rhenen</t>
+          <t>maarn</t>
         </is>
       </c>
       <c r="B15" s="4" t="n"/>
@@ -917,7 +892,7 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>utrecht</t>
+          <t>rhenen</t>
         </is>
       </c>
       <c r="B16" s="4" t="n"/>
@@ -943,7 +918,7 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>utrecht_overvecht</t>
+          <t>utrecht centraal</t>
         </is>
       </c>
       <c r="B17" s="4" t="n"/>
@@ -969,7 +944,7 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>veenendaal</t>
+          <t>utrecht overvecht</t>
         </is>
       </c>
       <c r="B18" s="4" t="n"/>
@@ -995,7 +970,7 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>veenendaal_centrum</t>
+          <t>veenendaal centrum</t>
         </is>
       </c>
       <c r="B19" s="4" t="n"/>
@@ -1021,7 +996,7 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>veenendaal_klomp</t>
+          <t>veenendaal west</t>
         </is>
       </c>
       <c r="B20" s="4" t="n"/>
@@ -1047,7 +1022,7 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>veenendaal_west</t>
+          <t>veenendaal-de klomp</t>
         </is>
       </c>
       <c r="B21" s="4" t="n"/>
@@ -1147,12 +1122,12 @@
     <row r="3">
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>amersfoort</t>
+          <t>amersfoort centraal</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>arnhem</t>
+          <t>arnhem centraal</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -1167,17 +1142,17 @@
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>den_dolder</t>
+          <t>den dolder</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>driebergen</t>
+          <t>driebergen-zeist</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>ede</t>
+          <t>ede-wageningen</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
@@ -1187,52 +1162,52 @@
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
+          <t>hilversum</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
           <t>houten</t>
         </is>
       </c>
-      <c r="K3" s="2" t="inlineStr">
+      <c r="L3" s="2" t="inlineStr">
         <is>
           <t>houten_vinex</t>
         </is>
       </c>
-      <c r="L3" s="2" t="inlineStr">
+      <c r="M3" s="2" t="inlineStr">
         <is>
           <t>maarn</t>
         </is>
       </c>
-      <c r="M3" s="2" t="inlineStr">
+      <c r="N3" s="2" t="inlineStr">
         <is>
           <t>rhenen</t>
         </is>
       </c>
-      <c r="N3" s="2" t="inlineStr">
-        <is>
-          <t>utrecht</t>
-        </is>
-      </c>
       <c r="O3" s="2" t="inlineStr">
         <is>
-          <t>utrecht_overvecht</t>
+          <t>utrecht centraal</t>
         </is>
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>veenendaal</t>
+          <t>utrecht overvecht</t>
         </is>
       </c>
       <c r="Q3" s="2" t="inlineStr">
         <is>
-          <t>veenendaal_centrum</t>
+          <t>veenendaal centrum</t>
         </is>
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
-          <t>veenendaal_klomp</t>
+          <t>veenendaal west</t>
         </is>
       </c>
       <c r="S3" s="2" t="inlineStr">
         <is>
-          <t>veenendaal_west</t>
+          <t>veenendaal-de klomp</t>
         </is>
       </c>
       <c r="T3" s="2" t="inlineStr">
@@ -1244,7 +1219,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>amersfoort</t>
+          <t>amersfoort centraal</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
@@ -1272,34 +1247,34 @@
         <v>40.8</v>
       </c>
       <c r="J4" s="4" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="K4" s="4" t="n">
         <v>29.4</v>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="L4" s="4" t="n">
         <v>31.1</v>
       </c>
-      <c r="L4" s="4" t="n">
+      <c r="M4" s="4" t="n">
         <v>15.3</v>
       </c>
-      <c r="M4" s="4" t="n">
+      <c r="N4" s="4" t="n">
         <v>42.1</v>
       </c>
-      <c r="N4" s="4" t="n">
+      <c r="O4" s="4" t="n">
         <v>28.2</v>
       </c>
-      <c r="O4" s="4" t="n">
+      <c r="P4" s="4" t="n">
         <v>22.9</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>30.8</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>32.3</v>
       </c>
       <c r="R4" s="4" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <v>30.8</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>32.7</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>35.3</v>
@@ -1308,7 +1283,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>arnhem</t>
+          <t>arnhem centraal</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
@@ -1336,34 +1311,34 @@
         <v>44.3</v>
       </c>
       <c r="J5" s="4" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="K5" s="4" t="n">
         <v>51.2</v>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="L5" s="4" t="n">
         <v>53.2</v>
       </c>
-      <c r="L5" s="4" t="n">
+      <c r="M5" s="4" t="n">
         <v>36.7</v>
       </c>
-      <c r="M5" s="4" t="n">
+      <c r="N5" s="4" t="n">
         <v>30.6</v>
       </c>
-      <c r="N5" s="4" t="n">
+      <c r="O5" s="4" t="n">
         <v>56</v>
       </c>
-      <c r="O5" s="4" t="n">
+      <c r="P5" s="4" t="n">
         <v>51.6</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>27.6</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>32.3</v>
       </c>
       <c r="R5" s="4" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>27.6</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>32.7</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>58.1</v>
@@ -1400,34 +1375,34 @@
         <v>34.7</v>
       </c>
       <c r="J6" s="4" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="K6" s="4" t="n">
         <v>23.4</v>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="L6" s="4" t="n">
         <v>25.1</v>
       </c>
-      <c r="L6" s="4" t="n">
+      <c r="M6" s="4" t="n">
         <v>25.3</v>
       </c>
-      <c r="M6" s="4" t="n">
+      <c r="N6" s="4" t="n">
         <v>48.5</v>
       </c>
-      <c r="N6" s="4" t="n">
+      <c r="O6" s="4" t="n">
         <v>22.7</v>
       </c>
-      <c r="O6" s="4" t="n">
+      <c r="P6" s="4" t="n">
         <v>13.9</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>37.2</v>
       </c>
       <c r="Q6" s="4" t="n">
         <v>38.7</v>
       </c>
       <c r="R6" s="4" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="S6" s="4" t="n">
         <v>37.2</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>39.1</v>
       </c>
       <c r="T6" s="4" t="n">
         <v>29.3</v>
@@ -1464,34 +1439,34 @@
         <v>32</v>
       </c>
       <c r="J7" s="4" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="K7" s="4" t="n">
         <v>23.9</v>
       </c>
-      <c r="K7" s="4" t="n">
+      <c r="L7" s="4" t="n">
         <v>25.8</v>
       </c>
-      <c r="L7" s="4" t="n">
+      <c r="M7" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="M7" s="4" t="n">
+      <c r="N7" s="4" t="n">
         <v>48.4</v>
       </c>
-      <c r="N7" s="4" t="n">
+      <c r="O7" s="4" t="n">
         <v>20.9</v>
       </c>
-      <c r="O7" s="4" t="n">
+      <c r="P7" s="4" t="n">
         <v>18.8</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>37.1</v>
       </c>
       <c r="Q7" s="4" t="n">
         <v>38.5</v>
       </c>
       <c r="R7" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="S7" s="4" t="n">
         <v>37.1</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>39</v>
       </c>
       <c r="T7" s="4" t="n">
         <v>15.4</v>
@@ -1500,7 +1475,7 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>den_dolder</t>
+          <t>den dolder</t>
         </is>
       </c>
       <c r="B8" s="4" t="n">
@@ -1528,34 +1503,34 @@
         <v>36.5</v>
       </c>
       <c r="J8" s="4" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K8" s="4" t="n">
         <v>25.1</v>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="L8" s="4" t="n">
         <v>26.9</v>
       </c>
-      <c r="L8" s="4" t="n">
+      <c r="M8" s="4" t="n">
         <v>20.1</v>
       </c>
-      <c r="M8" s="4" t="n">
+      <c r="N8" s="4" t="n">
         <v>46.9</v>
       </c>
-      <c r="N8" s="4" t="n">
+      <c r="O8" s="4" t="n">
         <v>23.9</v>
       </c>
-      <c r="O8" s="4" t="n">
+      <c r="P8" s="4" t="n">
         <v>15.8</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>35.6</v>
       </c>
       <c r="Q8" s="4" t="n">
         <v>37</v>
       </c>
       <c r="R8" s="4" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="S8" s="4" t="n">
         <v>35.6</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>37.5</v>
       </c>
       <c r="T8" s="4" t="n">
         <v>31.1</v>
@@ -1564,7 +1539,7 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>driebergen</t>
+          <t>driebergen-zeist</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
@@ -1592,34 +1567,34 @@
         <v>29.5</v>
       </c>
       <c r="J9" s="4" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K9" s="4" t="n">
         <v>15.3</v>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="L9" s="4" t="n">
         <v>17.2</v>
       </c>
-      <c r="L9" s="4" t="n">
+      <c r="M9" s="4" t="n">
         <v>9.5</v>
       </c>
-      <c r="M9" s="4" t="n">
+      <c r="N9" s="4" t="n">
         <v>30.9</v>
       </c>
-      <c r="N9" s="4" t="n">
+      <c r="O9" s="4" t="n">
         <v>21.2</v>
       </c>
-      <c r="O9" s="4" t="n">
+      <c r="P9" s="4" t="n">
         <v>16.8</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>19.7</v>
       </c>
       <c r="Q9" s="4" t="n">
         <v>21.1</v>
       </c>
       <c r="R9" s="4" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="S9" s="4" t="n">
         <v>19.7</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>21.5</v>
       </c>
       <c r="T9" s="4" t="n">
         <v>23.4</v>
@@ -1628,7 +1603,7 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>ede</t>
+          <t>ede-wageningen</t>
         </is>
       </c>
       <c r="B10" s="4" t="n">
@@ -1656,34 +1631,34 @@
         <v>44.6</v>
       </c>
       <c r="J10" s="4" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="K10" s="4" t="n">
         <v>38</v>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="L10" s="4" t="n">
         <v>39.9</v>
       </c>
-      <c r="L10" s="4" t="n">
+      <c r="M10" s="4" t="n">
         <v>23.4</v>
       </c>
-      <c r="M10" s="4" t="n">
+      <c r="N10" s="4" t="n">
         <v>23.9</v>
       </c>
-      <c r="N10" s="4" t="n">
+      <c r="O10" s="4" t="n">
         <v>42.6</v>
       </c>
-      <c r="O10" s="4" t="n">
+      <c r="P10" s="4" t="n">
         <v>38.3</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>14.3</v>
       </c>
       <c r="Q10" s="4" t="n">
         <v>19</v>
       </c>
       <c r="R10" s="4" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="S10" s="4" t="n">
         <v>14.3</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>19.4</v>
       </c>
       <c r="T10" s="4" t="n">
         <v>44.8</v>
@@ -1720,34 +1695,34 @@
         <v>0</v>
       </c>
       <c r="J11" s="4" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="K11" s="4" t="n">
         <v>25.9</v>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="L11" s="4" t="n">
         <v>27.6</v>
       </c>
-      <c r="L11" s="4" t="n">
+      <c r="M11" s="4" t="n">
         <v>31.9</v>
       </c>
-      <c r="M11" s="4" t="n">
+      <c r="N11" s="4" t="n">
         <v>25.9</v>
       </c>
-      <c r="N11" s="4" t="n">
+      <c r="O11" s="4" t="n">
         <v>31.9</v>
       </c>
-      <c r="O11" s="4" t="n">
+      <c r="P11" s="4" t="n">
         <v>29.4</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>39.7</v>
       </c>
       <c r="Q11" s="4" t="n">
         <v>36.5</v>
       </c>
       <c r="R11" s="4" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="S11" s="4" t="n">
         <v>39.7</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>38.2</v>
       </c>
       <c r="T11" s="4" t="n">
         <v>33.7</v>
@@ -1756,455 +1731,455 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>houten</t>
+          <t>hilversum</t>
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>30.1</v>
+        <v>30.5</v>
       </c>
       <c r="C12" s="4" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="H12" s="4" t="n">
         <v>51.7</v>
       </c>
-      <c r="D12" s="4" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>37.8</v>
-      </c>
       <c r="I12" s="4" t="n">
-        <v>27.6</v>
+        <v>43.5</v>
       </c>
       <c r="J12" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="4" t="n">
-        <v>5.8</v>
+        <v>32.1</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>20.9</v>
+        <v>33.8</v>
       </c>
       <c r="M12" s="4" t="n">
-        <v>42.3</v>
+        <v>34.8</v>
       </c>
       <c r="N12" s="4" t="n">
-        <v>22.9</v>
+        <v>56.2</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>18.8</v>
+        <v>31.5</v>
       </c>
       <c r="P12" s="4" t="n">
-        <v>31.1</v>
+        <v>21.9</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>32.5</v>
+        <v>46.5</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>31.1</v>
+        <v>46.9</v>
       </c>
       <c r="S12" s="4" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="T12" s="4" t="n">
-        <v>25.1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>houten_vinex</t>
+          <t>houten</t>
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>31.6</v>
+        <v>30.1</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>53.6</v>
+        <v>51.7</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>23.5</v>
+        <v>21.9</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>25.7</v>
+        <v>23.9</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>26</v>
+        <v>24.4</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>17.9</v>
+        <v>16.1</v>
       </c>
       <c r="H13" s="4" t="n">
-        <v>39.7</v>
+        <v>37.8</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>29.7</v>
+        <v>27.6</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>5.9</v>
+        <v>31.1</v>
       </c>
       <c r="K13" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>22.8</v>
+        <v>5.8</v>
       </c>
       <c r="M13" s="4" t="n">
-        <v>44.2</v>
+        <v>20.9</v>
       </c>
       <c r="N13" s="4" t="n">
-        <v>24.7</v>
+        <v>42.3</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>20.4</v>
+        <v>22.9</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>33</v>
+        <v>18.8</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>34.4</v>
+        <v>32.5</v>
       </c>
       <c r="R13" s="4" t="n">
         <v>33</v>
       </c>
       <c r="S13" s="4" t="n">
-        <v>34.8</v>
+        <v>31.1</v>
       </c>
       <c r="T13" s="4" t="n">
-        <v>26.9</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>maarn</t>
+          <t>houten_vinex</t>
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>17.8</v>
+        <v>31.6</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>37.2</v>
+        <v>53.6</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>24.3</v>
+        <v>23.5</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>26.5</v>
+        <v>25.7</v>
       </c>
       <c r="F14" s="4" t="n">
-        <v>19.8</v>
+        <v>26</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>17.9</v>
       </c>
       <c r="H14" s="4" t="n">
-        <v>23.3</v>
+        <v>39.7</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>33.8</v>
+        <v>29.7</v>
       </c>
       <c r="J14" s="4" t="n">
-        <v>20.8</v>
+        <v>32.6</v>
       </c>
       <c r="K14" s="4" t="n">
-        <v>22.8</v>
+        <v>5.9</v>
       </c>
       <c r="L14" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M14" s="4" t="n">
-        <v>27.8</v>
+        <v>22.8</v>
       </c>
       <c r="N14" s="4" t="n">
-        <v>25.5</v>
+        <v>44.2</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>21.1</v>
+        <v>24.7</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>16.6</v>
+        <v>20.4</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>18</v>
+        <v>34.4</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>16.6</v>
+        <v>34.8</v>
       </c>
       <c r="S14" s="4" t="n">
-        <v>18.5</v>
+        <v>33</v>
       </c>
       <c r="T14" s="4" t="n">
-        <v>27.7</v>
+        <v>26.9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>rhenen</t>
+          <t>maarn</t>
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>41</v>
+        <v>17.8</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>36</v>
+        <v>37.2</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>44.5</v>
+        <v>24.3</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>46.8</v>
+        <v>26.5</v>
       </c>
       <c r="F15" s="4" t="n">
-        <v>45.1</v>
+        <v>19.8</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>28.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H15" s="4" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>26</v>
+        <v>33.8</v>
       </c>
       <c r="J15" s="4" t="n">
-        <v>41.1</v>
+        <v>33.4</v>
       </c>
       <c r="K15" s="4" t="n">
-        <v>43</v>
+        <v>20.8</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>26.5</v>
+        <v>22.8</v>
       </c>
       <c r="M15" s="4" t="n">
         <v>0</v>
       </c>
       <c r="N15" s="4" t="n">
-        <v>45.8</v>
+        <v>27.8</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>41.4</v>
+        <v>25.5</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>16.4</v>
+        <v>21.1</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>13.2</v>
+        <v>18</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>16.4</v>
+        <v>18.5</v>
       </c>
       <c r="S15" s="4" t="n">
-        <v>14.9</v>
+        <v>16.6</v>
       </c>
       <c r="T15" s="4" t="n">
-        <v>48</v>
+        <v>27.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>utrecht</t>
+          <t>rhenen</t>
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>30.2</v>
+        <v>41</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>57.2</v>
+        <v>36</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>21.5</v>
+        <v>44.5</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>23.6</v>
+        <v>46.8</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>24.5</v>
+        <v>45.1</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>22.2</v>
+        <v>28.9</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>43.3</v>
+        <v>23.2</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>33.7</v>
+        <v>26</v>
       </c>
       <c r="J16" s="4" t="n">
-        <v>23.3</v>
+        <v>53.9</v>
       </c>
       <c r="K16" s="4" t="n">
-        <v>25.2</v>
+        <v>41.1</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>26.4</v>
+        <v>43</v>
       </c>
       <c r="M16" s="4" t="n">
-        <v>47.8</v>
+        <v>26.5</v>
       </c>
       <c r="N16" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>12.3</v>
+        <v>45.8</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>36.5</v>
+        <v>41.4</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>38</v>
+        <v>13.2</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>36.5</v>
+        <v>14.9</v>
       </c>
       <c r="S16" s="4" t="n">
-        <v>38.4</v>
+        <v>16.4</v>
       </c>
       <c r="T16" s="4" t="n">
-        <v>24.5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>utrecht_overvecht</t>
+          <t>utrecht centraal</t>
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>26</v>
+        <v>30.2</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>53.3</v>
+        <v>57.2</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>15.7</v>
+        <v>21.5</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>18.8</v>
+        <v>23.6</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>16.5</v>
+        <v>24.5</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>18.4</v>
+        <v>22.2</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>39.4</v>
+        <v>43.3</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>31.2</v>
+        <v>33.7</v>
       </c>
       <c r="J17" s="4" t="n">
-        <v>19.8</v>
+        <v>31.5</v>
       </c>
       <c r="K17" s="4" t="n">
-        <v>21.5</v>
+        <v>23.3</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>22.6</v>
+        <v>25.2</v>
       </c>
       <c r="M17" s="4" t="n">
-        <v>44</v>
+        <v>26.4</v>
       </c>
       <c r="N17" s="4" t="n">
-        <v>12.7</v>
+        <v>47.8</v>
       </c>
       <c r="O17" s="4" t="n">
         <v>0</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>32.7</v>
+        <v>12.3</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>34.1</v>
+        <v>38</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>32.7</v>
+        <v>38.4</v>
       </c>
       <c r="S17" s="4" t="n">
-        <v>34.6</v>
+        <v>36.5</v>
       </c>
       <c r="T17" s="4" t="n">
-        <v>25.7</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>veenendaal</t>
+          <t>utrecht overvecht</t>
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>30.8</v>
+        <v>26</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>28.6</v>
+        <v>53.3</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>34.2</v>
+        <v>15.7</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>36.5</v>
+        <v>18.8</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>34.8</v>
+        <v>16.5</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>18.7</v>
+        <v>18.4</v>
       </c>
       <c r="H18" s="4" t="n">
-        <v>14.7</v>
+        <v>39.4</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>38.5</v>
+        <v>31.2</v>
       </c>
       <c r="J18" s="4" t="n">
-        <v>30.8</v>
+        <v>22.8</v>
       </c>
       <c r="K18" s="4" t="n">
-        <v>32.7</v>
+        <v>19.8</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>16.2</v>
+        <v>21.5</v>
       </c>
       <c r="M18" s="4" t="n">
-        <v>17.8</v>
+        <v>22.6</v>
       </c>
       <c r="N18" s="4" t="n">
-        <v>35.5</v>
+        <v>44</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>31.1</v>
+        <v>12.7</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>10.8</v>
+        <v>34.1</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>0</v>
+        <v>34.6</v>
       </c>
       <c r="S18" s="4" t="n">
-        <v>11.2</v>
+        <v>32.7</v>
       </c>
       <c r="T18" s="4" t="n">
-        <v>37.7</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>veenendaal_centrum</t>
+          <t>veenendaal centrum</t>
         </is>
       </c>
       <c r="B19" s="4" t="n">
@@ -2232,34 +2207,34 @@
         <v>35.1</v>
       </c>
       <c r="J19" s="4" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="K19" s="4" t="n">
         <v>33.5</v>
       </c>
-      <c r="K19" s="4" t="n">
+      <c r="L19" s="4" t="n">
         <v>35.5</v>
       </c>
-      <c r="L19" s="4" t="n">
+      <c r="M19" s="4" t="n">
         <v>18.9</v>
       </c>
-      <c r="M19" s="4" t="n">
+      <c r="N19" s="4" t="n">
         <v>14.4</v>
       </c>
-      <c r="N19" s="4" t="n">
+      <c r="O19" s="4" t="n">
         <v>38.2</v>
       </c>
-      <c r="O19" s="4" t="n">
+      <c r="P19" s="4" t="n">
         <v>33.8</v>
-      </c>
-      <c r="P19" s="4" t="n">
-        <v>10.8</v>
       </c>
       <c r="Q19" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R19" s="4" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="S19" s="4" t="n">
         <v>10.8</v>
-      </c>
-      <c r="S19" s="4" t="n">
-        <v>5.9</v>
       </c>
       <c r="T19" s="4" t="n">
         <v>40.4</v>
@@ -2268,129 +2243,129 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>veenendaal_klomp</t>
+          <t>veenendaal west</t>
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>30.8</v>
+        <v>33.2</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>28.6</v>
+        <v>31.6</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>34.2</v>
+        <v>36.7</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>36.5</v>
+        <v>39</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>34.8</v>
+        <v>37.2</v>
       </c>
       <c r="G20" s="4" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="H20" s="4" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="I20" s="4" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="J20" s="4" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="K20" s="4" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L20" s="4" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="M20" s="4" t="n">
         <v>18.7</v>
       </c>
-      <c r="H20" s="4" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="I20" s="4" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="J20" s="4" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="K20" s="4" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="L20" s="4" t="n">
+      <c r="N20" s="4" t="n">
         <v>16.2</v>
       </c>
-      <c r="M20" s="4" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="N20" s="4" t="n">
-        <v>35.5</v>
-      </c>
       <c r="O20" s="4" t="n">
-        <v>31.1</v>
+        <v>37.9</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>0</v>
+        <v>33.5</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>10.8</v>
+        <v>5.6</v>
       </c>
       <c r="R20" s="4" t="n">
         <v>0</v>
       </c>
       <c r="S20" s="4" t="n">
-        <v>11.2</v>
+        <v>10.5</v>
       </c>
       <c r="T20" s="4" t="n">
-        <v>37.7</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>veenendaal_west</t>
+          <t>veenendaal-de klomp</t>
         </is>
       </c>
       <c r="B21" s="4" t="n">
-        <v>33.2</v>
+        <v>30.8</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>31.6</v>
+        <v>28.6</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>36.7</v>
+        <v>34.2</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>39</v>
+        <v>36.5</v>
       </c>
       <c r="F21" s="4" t="n">
-        <v>37.2</v>
+        <v>34.8</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>21.1</v>
+        <v>18.7</v>
       </c>
       <c r="H21" s="4" t="n">
-        <v>17.7</v>
+        <v>14.7</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>36.9</v>
+        <v>38.5</v>
       </c>
       <c r="J21" s="4" t="n">
-        <v>33.2</v>
+        <v>42.9</v>
       </c>
       <c r="K21" s="4" t="n">
-        <v>35.2</v>
+        <v>30.8</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>18.7</v>
+        <v>32.7</v>
       </c>
       <c r="M21" s="4" t="n">
         <v>16.2</v>
       </c>
       <c r="N21" s="4" t="n">
-        <v>37.9</v>
+        <v>17.8</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>33.5</v>
+        <v>35.5</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>10.5</v>
+        <v>31.1</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>5.6</v>
+        <v>10.8</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>10.5</v>
+        <v>11.2</v>
       </c>
       <c r="S21" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T21" s="4" t="n">
-        <v>40.1</v>
+        <v>37.7</v>
       </c>
     </row>
     <row r="22">
@@ -2424,34 +2399,34 @@
         <v>35.2</v>
       </c>
       <c r="J22" s="4" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="K22" s="4" t="n">
         <v>26.6</v>
       </c>
-      <c r="K22" s="4" t="n">
+      <c r="L22" s="4" t="n">
         <v>28.6</v>
       </c>
-      <c r="L22" s="4" t="n">
+      <c r="M22" s="4" t="n">
         <v>29.7</v>
       </c>
-      <c r="M22" s="4" t="n">
+      <c r="N22" s="4" t="n">
         <v>51.1</v>
       </c>
-      <c r="N22" s="4" t="n">
+      <c r="O22" s="4" t="n">
         <v>25.6</v>
       </c>
-      <c r="O22" s="4" t="n">
+      <c r="P22" s="4" t="n">
         <v>27.6</v>
-      </c>
-      <c r="P22" s="4" t="n">
-        <v>39.9</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>41.3</v>
       </c>
       <c r="R22" s="4" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="S22" s="4" t="n">
         <v>39.9</v>
-      </c>
-      <c r="S22" s="4" t="n">
-        <v>41.8</v>
       </c>
       <c r="T22" s="4" t="n">
         <v>0</v>
@@ -2498,12 +2473,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>amersfoort</t>
+          <t>amersfoort centraal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>arnhem</t>
+          <t>arnhem centraal</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2518,17 +2493,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>den_dolder</t>
+          <t>den dolder</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>driebergen</t>
+          <t>driebergen-zeist</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ede</t>
+          <t>ede-wageningen</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -2538,52 +2513,52 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>hilversum</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>houten</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>houten_vinex</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>maarn</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>rhenen</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>utrecht</t>
-        </is>
-      </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>utrecht_overvecht</t>
+          <t>utrecht centraal</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>veenendaal</t>
+          <t>utrecht overvecht</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>veenendaal_centrum</t>
+          <t>veenendaal centrum</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>veenendaal_klomp</t>
+          <t>veenendaal west</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>veenendaal_west</t>
+          <t>veenendaal-de klomp</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -2595,7 +2570,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>amersfoort</t>
+          <t>amersfoort centraal</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2623,34 +2598,34 @@
         <v>40.8</v>
       </c>
       <c r="J5" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="K5" t="n">
         <v>29.4</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>31.1</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>15.3</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>42.1</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>28.2</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>22.9</v>
-      </c>
-      <c r="P5" t="n">
-        <v>30.8</v>
       </c>
       <c r="Q5" t="n">
         <v>32.3</v>
       </c>
       <c r="R5" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="S5" t="n">
         <v>30.8</v>
-      </c>
-      <c r="S5" t="n">
-        <v>32.7</v>
       </c>
       <c r="T5" t="n">
         <v>35.3</v>
@@ -2659,7 +2634,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>arnhem</t>
+          <t>arnhem centraal</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2687,34 +2662,34 @@
         <v>44.3</v>
       </c>
       <c r="J6" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="K6" t="n">
         <v>51.2</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>53.2</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>36.7</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>30.6</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>56</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>51.6</v>
-      </c>
-      <c r="P6" t="n">
-        <v>27.6</v>
       </c>
       <c r="Q6" t="n">
         <v>32.3</v>
       </c>
       <c r="R6" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="S6" t="n">
         <v>27.6</v>
-      </c>
-      <c r="S6" t="n">
-        <v>32.7</v>
       </c>
       <c r="T6" t="n">
         <v>58.1</v>
@@ -2751,34 +2726,34 @@
         <v>34.7</v>
       </c>
       <c r="J7" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="K7" t="n">
         <v>23.4</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>25.1</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>25.3</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>48.5</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>22.7</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>13.9</v>
-      </c>
-      <c r="P7" t="n">
-        <v>37.2</v>
       </c>
       <c r="Q7" t="n">
         <v>38.7</v>
       </c>
       <c r="R7" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="S7" t="n">
         <v>37.2</v>
-      </c>
-      <c r="S7" t="n">
-        <v>39.1</v>
       </c>
       <c r="T7" t="n">
         <v>29.3</v>
@@ -2815,34 +2790,34 @@
         <v>32</v>
       </c>
       <c r="J8" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="K8" t="n">
         <v>23.9</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>25.8</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>27</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>48.4</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>20.9</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>18.8</v>
-      </c>
-      <c r="P8" t="n">
-        <v>37.1</v>
       </c>
       <c r="Q8" t="n">
         <v>38.5</v>
       </c>
       <c r="R8" t="n">
+        <v>39</v>
+      </c>
+      <c r="S8" t="n">
         <v>37.1</v>
-      </c>
-      <c r="S8" t="n">
-        <v>39</v>
       </c>
       <c r="T8" t="n">
         <v>15.4</v>
@@ -2851,7 +2826,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>den_dolder</t>
+          <t>den dolder</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2879,34 +2854,34 @@
         <v>36.5</v>
       </c>
       <c r="J9" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K9" t="n">
         <v>25.1</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>26.9</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>20.1</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>46.9</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>23.9</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>15.8</v>
-      </c>
-      <c r="P9" t="n">
-        <v>35.6</v>
       </c>
       <c r="Q9" t="n">
         <v>37</v>
       </c>
       <c r="R9" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="S9" t="n">
         <v>35.6</v>
-      </c>
-      <c r="S9" t="n">
-        <v>37.5</v>
       </c>
       <c r="T9" t="n">
         <v>31.1</v>
@@ -2915,7 +2890,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>driebergen</t>
+          <t>driebergen-zeist</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2943,34 +2918,34 @@
         <v>29.5</v>
       </c>
       <c r="J10" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K10" t="n">
         <v>15.3</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>17.2</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>9.5</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>30.9</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>21.2</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>16.8</v>
-      </c>
-      <c r="P10" t="n">
-        <v>19.7</v>
       </c>
       <c r="Q10" t="n">
         <v>21.1</v>
       </c>
       <c r="R10" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="S10" t="n">
         <v>19.7</v>
-      </c>
-      <c r="S10" t="n">
-        <v>21.5</v>
       </c>
       <c r="T10" t="n">
         <v>23.4</v>
@@ -2979,7 +2954,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ede</t>
+          <t>ede-wageningen</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -3007,34 +2982,34 @@
         <v>44.6</v>
       </c>
       <c r="J11" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="K11" t="n">
         <v>38</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>39.9</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>23.4</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>23.9</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>42.6</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>38.3</v>
-      </c>
-      <c r="P11" t="n">
-        <v>14.3</v>
       </c>
       <c r="Q11" t="n">
         <v>19</v>
       </c>
       <c r="R11" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="S11" t="n">
         <v>14.3</v>
-      </c>
-      <c r="S11" t="n">
-        <v>19.4</v>
       </c>
       <c r="T11" t="n">
         <v>44.8</v>
@@ -3071,34 +3046,34 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="K12" t="n">
         <v>25.9</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>27.6</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>31.9</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>25.9</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>31.9</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>29.4</v>
-      </c>
-      <c r="P12" t="n">
-        <v>39.7</v>
       </c>
       <c r="Q12" t="n">
         <v>36.5</v>
       </c>
       <c r="R12" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="S12" t="n">
         <v>39.7</v>
-      </c>
-      <c r="S12" t="n">
-        <v>38.2</v>
       </c>
       <c r="T12" t="n">
         <v>33.7</v>
@@ -3107,455 +3082,455 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>houten</t>
+          <t>hilversum</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>30.1</v>
+        <v>30.5</v>
       </c>
       <c r="C13" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="D13" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="E13" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="H13" t="n">
         <v>51.7</v>
       </c>
-      <c r="D13" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="E13" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="F13" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="G13" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>37.8</v>
-      </c>
       <c r="I13" t="n">
-        <v>27.6</v>
+        <v>43.5</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>5.8</v>
+        <v>32.1</v>
       </c>
       <c r="L13" t="n">
-        <v>20.9</v>
+        <v>33.8</v>
       </c>
       <c r="M13" t="n">
-        <v>42.3</v>
+        <v>34.8</v>
       </c>
       <c r="N13" t="n">
-        <v>22.9</v>
+        <v>56.2</v>
       </c>
       <c r="O13" t="n">
-        <v>18.8</v>
+        <v>31.5</v>
       </c>
       <c r="P13" t="n">
-        <v>31.1</v>
+        <v>21.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>32.5</v>
+        <v>46.5</v>
       </c>
       <c r="R13" t="n">
-        <v>31.1</v>
+        <v>46.9</v>
       </c>
       <c r="S13" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="T13" t="n">
-        <v>25.1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>houten_vinex</t>
+          <t>houten</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31.6</v>
+        <v>30.1</v>
       </c>
       <c r="C14" t="n">
-        <v>53.6</v>
+        <v>51.7</v>
       </c>
       <c r="D14" t="n">
-        <v>23.5</v>
+        <v>21.9</v>
       </c>
       <c r="E14" t="n">
-        <v>25.7</v>
+        <v>23.9</v>
       </c>
       <c r="F14" t="n">
-        <v>26</v>
+        <v>24.4</v>
       </c>
       <c r="G14" t="n">
-        <v>17.9</v>
+        <v>16.1</v>
       </c>
       <c r="H14" t="n">
-        <v>39.7</v>
+        <v>37.8</v>
       </c>
       <c r="I14" t="n">
-        <v>29.7</v>
+        <v>27.6</v>
       </c>
       <c r="J14" t="n">
-        <v>5.9</v>
+        <v>31.1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>22.8</v>
+        <v>5.8</v>
       </c>
       <c r="M14" t="n">
-        <v>44.2</v>
+        <v>20.9</v>
       </c>
       <c r="N14" t="n">
-        <v>24.7</v>
+        <v>42.3</v>
       </c>
       <c r="O14" t="n">
-        <v>20.4</v>
+        <v>22.9</v>
       </c>
       <c r="P14" t="n">
-        <v>33</v>
+        <v>18.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>34.4</v>
+        <v>32.5</v>
       </c>
       <c r="R14" t="n">
         <v>33</v>
       </c>
       <c r="S14" t="n">
-        <v>34.8</v>
+        <v>31.1</v>
       </c>
       <c r="T14" t="n">
-        <v>26.9</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>maarn</t>
+          <t>houten_vinex</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17.8</v>
+        <v>31.6</v>
       </c>
       <c r="C15" t="n">
-        <v>37.2</v>
+        <v>53.6</v>
       </c>
       <c r="D15" t="n">
-        <v>24.3</v>
+        <v>23.5</v>
       </c>
       <c r="E15" t="n">
-        <v>26.5</v>
+        <v>25.7</v>
       </c>
       <c r="F15" t="n">
-        <v>19.8</v>
+        <v>26</v>
       </c>
       <c r="G15" t="n">
-        <v>8.699999999999999</v>
+        <v>17.9</v>
       </c>
       <c r="H15" t="n">
-        <v>23.3</v>
+        <v>39.7</v>
       </c>
       <c r="I15" t="n">
-        <v>33.8</v>
+        <v>29.7</v>
       </c>
       <c r="J15" t="n">
-        <v>20.8</v>
+        <v>32.6</v>
       </c>
       <c r="K15" t="n">
-        <v>22.8</v>
+        <v>5.9</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>27.8</v>
+        <v>22.8</v>
       </c>
       <c r="N15" t="n">
-        <v>25.5</v>
+        <v>44.2</v>
       </c>
       <c r="O15" t="n">
-        <v>21.1</v>
+        <v>24.7</v>
       </c>
       <c r="P15" t="n">
-        <v>16.6</v>
+        <v>20.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>18</v>
+        <v>34.4</v>
       </c>
       <c r="R15" t="n">
-        <v>16.6</v>
+        <v>34.8</v>
       </c>
       <c r="S15" t="n">
-        <v>18.5</v>
+        <v>33</v>
       </c>
       <c r="T15" t="n">
-        <v>27.7</v>
+        <v>26.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>rhenen</t>
+          <t>maarn</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41</v>
+        <v>17.8</v>
       </c>
       <c r="C16" t="n">
-        <v>36</v>
+        <v>37.2</v>
       </c>
       <c r="D16" t="n">
-        <v>44.5</v>
+        <v>24.3</v>
       </c>
       <c r="E16" t="n">
-        <v>46.8</v>
+        <v>26.5</v>
       </c>
       <c r="F16" t="n">
-        <v>45.1</v>
+        <v>19.8</v>
       </c>
       <c r="G16" t="n">
-        <v>28.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="I16" t="n">
-        <v>26</v>
+        <v>33.8</v>
       </c>
       <c r="J16" t="n">
-        <v>41.1</v>
+        <v>33.4</v>
       </c>
       <c r="K16" t="n">
-        <v>43</v>
+        <v>20.8</v>
       </c>
       <c r="L16" t="n">
-        <v>26.5</v>
+        <v>22.8</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>45.8</v>
+        <v>27.8</v>
       </c>
       <c r="O16" t="n">
-        <v>41.4</v>
+        <v>25.5</v>
       </c>
       <c r="P16" t="n">
-        <v>16.4</v>
+        <v>21.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.2</v>
+        <v>18</v>
       </c>
       <c r="R16" t="n">
-        <v>16.4</v>
+        <v>18.5</v>
       </c>
       <c r="S16" t="n">
-        <v>14.9</v>
+        <v>16.6</v>
       </c>
       <c r="T16" t="n">
-        <v>48</v>
+        <v>27.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>utrecht</t>
+          <t>rhenen</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>30.2</v>
+        <v>41</v>
       </c>
       <c r="C17" t="n">
-        <v>57.2</v>
+        <v>36</v>
       </c>
       <c r="D17" t="n">
-        <v>21.5</v>
+        <v>44.5</v>
       </c>
       <c r="E17" t="n">
-        <v>23.6</v>
+        <v>46.8</v>
       </c>
       <c r="F17" t="n">
-        <v>24.5</v>
+        <v>45.1</v>
       </c>
       <c r="G17" t="n">
-        <v>22.2</v>
+        <v>28.9</v>
       </c>
       <c r="H17" t="n">
-        <v>43.3</v>
+        <v>23.2</v>
       </c>
       <c r="I17" t="n">
-        <v>33.7</v>
+        <v>26</v>
       </c>
       <c r="J17" t="n">
-        <v>23.3</v>
+        <v>53.9</v>
       </c>
       <c r="K17" t="n">
-        <v>25.2</v>
+        <v>41.1</v>
       </c>
       <c r="L17" t="n">
-        <v>26.4</v>
+        <v>43</v>
       </c>
       <c r="M17" t="n">
-        <v>47.8</v>
+        <v>26.5</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>12.3</v>
+        <v>45.8</v>
       </c>
       <c r="P17" t="n">
-        <v>36.5</v>
+        <v>41.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>38</v>
+        <v>13.2</v>
       </c>
       <c r="R17" t="n">
-        <v>36.5</v>
+        <v>14.9</v>
       </c>
       <c r="S17" t="n">
-        <v>38.4</v>
+        <v>16.4</v>
       </c>
       <c r="T17" t="n">
-        <v>24.5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>utrecht_overvecht</t>
+          <t>utrecht centraal</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>26</v>
+        <v>30.2</v>
       </c>
       <c r="C18" t="n">
-        <v>53.3</v>
+        <v>57.2</v>
       </c>
       <c r="D18" t="n">
-        <v>15.7</v>
+        <v>21.5</v>
       </c>
       <c r="E18" t="n">
-        <v>18.8</v>
+        <v>23.6</v>
       </c>
       <c r="F18" t="n">
-        <v>16.5</v>
+        <v>24.5</v>
       </c>
       <c r="G18" t="n">
-        <v>18.4</v>
+        <v>22.2</v>
       </c>
       <c r="H18" t="n">
-        <v>39.4</v>
+        <v>43.3</v>
       </c>
       <c r="I18" t="n">
-        <v>31.2</v>
+        <v>33.7</v>
       </c>
       <c r="J18" t="n">
-        <v>19.8</v>
+        <v>31.5</v>
       </c>
       <c r="K18" t="n">
-        <v>21.5</v>
+        <v>23.3</v>
       </c>
       <c r="L18" t="n">
-        <v>22.6</v>
+        <v>25.2</v>
       </c>
       <c r="M18" t="n">
-        <v>44</v>
+        <v>26.4</v>
       </c>
       <c r="N18" t="n">
-        <v>12.7</v>
+        <v>47.8</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>32.7</v>
+        <v>12.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>34.1</v>
+        <v>38</v>
       </c>
       <c r="R18" t="n">
-        <v>32.7</v>
+        <v>38.4</v>
       </c>
       <c r="S18" t="n">
-        <v>34.6</v>
+        <v>36.5</v>
       </c>
       <c r="T18" t="n">
-        <v>25.7</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>veenendaal</t>
+          <t>utrecht overvecht</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30.8</v>
+        <v>26</v>
       </c>
       <c r="C19" t="n">
-        <v>28.6</v>
+        <v>53.3</v>
       </c>
       <c r="D19" t="n">
-        <v>34.2</v>
+        <v>15.7</v>
       </c>
       <c r="E19" t="n">
-        <v>36.5</v>
+        <v>18.8</v>
       </c>
       <c r="F19" t="n">
-        <v>34.8</v>
+        <v>16.5</v>
       </c>
       <c r="G19" t="n">
-        <v>18.7</v>
+        <v>18.4</v>
       </c>
       <c r="H19" t="n">
-        <v>14.7</v>
+        <v>39.4</v>
       </c>
       <c r="I19" t="n">
-        <v>38.5</v>
+        <v>31.2</v>
       </c>
       <c r="J19" t="n">
-        <v>30.8</v>
+        <v>22.8</v>
       </c>
       <c r="K19" t="n">
-        <v>32.7</v>
+        <v>19.8</v>
       </c>
       <c r="L19" t="n">
-        <v>16.2</v>
+        <v>21.5</v>
       </c>
       <c r="M19" t="n">
-        <v>17.8</v>
+        <v>22.6</v>
       </c>
       <c r="N19" t="n">
-        <v>35.5</v>
+        <v>44</v>
       </c>
       <c r="O19" t="n">
-        <v>31.1</v>
+        <v>12.7</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>10.8</v>
+        <v>34.1</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>34.6</v>
       </c>
       <c r="S19" t="n">
-        <v>11.2</v>
+        <v>32.7</v>
       </c>
       <c r="T19" t="n">
-        <v>37.7</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>veenendaal_centrum</t>
+          <t>veenendaal centrum</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -3583,34 +3558,34 @@
         <v>35.1</v>
       </c>
       <c r="J20" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="K20" t="n">
         <v>33.5</v>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>35.5</v>
       </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
         <v>18.9</v>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>14.4</v>
       </c>
-      <c r="N20" t="n">
+      <c r="O20" t="n">
         <v>38.2</v>
       </c>
-      <c r="O20" t="n">
+      <c r="P20" t="n">
         <v>33.8</v>
-      </c>
-      <c r="P20" t="n">
-        <v>10.8</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="S20" t="n">
         <v>10.8</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5.9</v>
       </c>
       <c r="T20" t="n">
         <v>40.4</v>
@@ -3619,129 +3594,129 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>veenendaal_klomp</t>
+          <t>veenendaal west</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>30.8</v>
+        <v>33.2</v>
       </c>
       <c r="C21" t="n">
-        <v>28.6</v>
+        <v>31.6</v>
       </c>
       <c r="D21" t="n">
-        <v>34.2</v>
+        <v>36.7</v>
       </c>
       <c r="E21" t="n">
-        <v>36.5</v>
+        <v>39</v>
       </c>
       <c r="F21" t="n">
-        <v>34.8</v>
+        <v>37.2</v>
       </c>
       <c r="G21" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="I21" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="J21" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="K21" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="M21" t="n">
         <v>18.7</v>
       </c>
-      <c r="H21" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="I21" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="K21" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>16.2</v>
       </c>
-      <c r="M21" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="N21" t="n">
-        <v>35.5</v>
-      </c>
       <c r="O21" t="n">
-        <v>31.1</v>
+        <v>37.9</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>33.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>10.8</v>
+        <v>5.6</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>11.2</v>
+        <v>10.5</v>
       </c>
       <c r="T21" t="n">
-        <v>37.7</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>veenendaal_west</t>
+          <t>veenendaal-de klomp</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>33.2</v>
+        <v>30.8</v>
       </c>
       <c r="C22" t="n">
-        <v>31.6</v>
+        <v>28.6</v>
       </c>
       <c r="D22" t="n">
-        <v>36.7</v>
+        <v>34.2</v>
       </c>
       <c r="E22" t="n">
-        <v>39</v>
+        <v>36.5</v>
       </c>
       <c r="F22" t="n">
-        <v>37.2</v>
+        <v>34.8</v>
       </c>
       <c r="G22" t="n">
-        <v>21.1</v>
+        <v>18.7</v>
       </c>
       <c r="H22" t="n">
-        <v>17.7</v>
+        <v>14.7</v>
       </c>
       <c r="I22" t="n">
-        <v>36.9</v>
+        <v>38.5</v>
       </c>
       <c r="J22" t="n">
-        <v>33.2</v>
+        <v>42.9</v>
       </c>
       <c r="K22" t="n">
-        <v>35.2</v>
+        <v>30.8</v>
       </c>
       <c r="L22" t="n">
-        <v>18.7</v>
+        <v>32.7</v>
       </c>
       <c r="M22" t="n">
         <v>16.2</v>
       </c>
       <c r="N22" t="n">
-        <v>37.9</v>
+        <v>17.8</v>
       </c>
       <c r="O22" t="n">
-        <v>33.5</v>
+        <v>35.5</v>
       </c>
       <c r="P22" t="n">
-        <v>10.5</v>
+        <v>31.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.6</v>
+        <v>10.8</v>
       </c>
       <c r="R22" t="n">
-        <v>10.5</v>
+        <v>11.2</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>40.1</v>
+        <v>37.7</v>
       </c>
     </row>
     <row r="23">
@@ -3775,34 +3750,34 @@
         <v>35.2</v>
       </c>
       <c r="J23" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="K23" t="n">
         <v>26.6</v>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>28.6</v>
       </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
         <v>29.7</v>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>51.1</v>
       </c>
-      <c r="N23" t="n">
+      <c r="O23" t="n">
         <v>25.6</v>
       </c>
-      <c r="O23" t="n">
+      <c r="P23" t="n">
         <v>27.6</v>
-      </c>
-      <c r="P23" t="n">
-        <v>39.9</v>
       </c>
       <c r="Q23" t="n">
         <v>41.3</v>
       </c>
       <c r="R23" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="S23" t="n">
         <v>39.9</v>
-      </c>
-      <c r="S23" t="n">
-        <v>41.8</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -3814,858 +3789,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="16" customWidth="1" min="6" max="6"/>
-    <col width="16" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
-    <col width="12" customWidth="1" min="9" max="9"/>
-    <col width="16" customWidth="1" min="10" max="10"/>
-    <col width="40" customWidth="1" min="11" max="11"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Ritvalidatie: Geplande rijtijd vs Google Maps</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>Van</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>Naar</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>Aantal ritten</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>Min. gepland (min)</t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>Max. gepland (min)</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>Gem. gepland (min)</t>
-        </is>
-      </c>
-      <c r="G3" s="5" t="inlineStr">
-        <is>
-          <t>Google Maps (min)</t>
-        </is>
-      </c>
-      <c r="H3" s="5" t="inlineStr">
-        <is>
-          <t>Buffer (min)</t>
-        </is>
-      </c>
-      <c r="I3" s="5" t="inlineStr">
-        <is>
-          <t>Buffer (%)</t>
-        </is>
-      </c>
-      <c r="J3" s="5" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="K3" s="5" t="inlineStr">
-        <is>
-          <t>Busdiensten</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="inlineStr">
-        <is>
-          <t>Utrecht Centraal</t>
-        </is>
-      </c>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>Ede-Wageningen</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="n">
-        <v>488</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>42</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>42</v>
-      </c>
-      <c r="F4" s="6" t="n">
-        <v>42</v>
-      </c>
-      <c r="G4" s="6" t="n">
-        <v>43.3</v>
-      </c>
-      <c r="H4" s="6" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J4" s="6" t="inlineStr">
-        <is>
-          <t>ONREALISTISCH</t>
-        </is>
-      </c>
-      <c r="K4" s="6" t="inlineStr">
-        <is>
-          <t>SN Ut-Ed DD, SN Ut-Ed TC</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="inlineStr">
-        <is>
-          <t>Ede-Wageningen</t>
-        </is>
-      </c>
-      <c r="B5" s="6" t="inlineStr">
-        <is>
-          <t>Utrecht Centraal</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="n">
-        <v>488</v>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>42</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>42</v>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>42</v>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v>42.6</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="J5" s="6" t="inlineStr">
-        <is>
-          <t>ONREALISTISCH</t>
-        </is>
-      </c>
-      <c r="K5" s="6" t="inlineStr">
-        <is>
-          <t>SN Ut-Ed DD, SN Ut-Ed TC</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>Driebergen-Zeist</t>
-        </is>
-      </c>
-      <c r="B6" s="7" t="inlineStr">
-        <is>
-          <t>Maarn</t>
-        </is>
-      </c>
-      <c r="C6" s="7" t="n">
-        <v>82</v>
-      </c>
-      <c r="D6" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="E6" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="F6" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" s="7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="H6" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="7" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J6" s="7" t="inlineStr">
-        <is>
-          <t>KRAP</t>
-        </is>
-      </c>
-      <c r="K6" s="7" t="inlineStr">
-        <is>
-          <t>Taxi Db-Mrn</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t>Maarn</t>
-        </is>
-      </c>
-      <c r="B7" s="7" t="inlineStr">
-        <is>
-          <t>Driebergen-Zeist</t>
-        </is>
-      </c>
-      <c r="C7" s="7" t="n">
-        <v>81</v>
-      </c>
-      <c r="D7" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="E7" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="F7" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="G7" s="7" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="H7" s="7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="I7" s="7" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J7" s="7" t="inlineStr">
-        <is>
-          <t>KRAP</t>
-        </is>
-      </c>
-      <c r="K7" s="7" t="inlineStr">
-        <is>
-          <t>Taxi Db-Mrn</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="8" t="inlineStr">
-        <is>
-          <t>Driebergen-Zeist</t>
-        </is>
-      </c>
-      <c r="B8" s="8" t="inlineStr">
-        <is>
-          <t>Rhenen</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="n">
-        <v>236</v>
-      </c>
-      <c r="D8" s="8" t="n">
-        <v>41</v>
-      </c>
-      <c r="E8" s="8" t="n">
-        <v>53</v>
-      </c>
-      <c r="F8" s="8" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="G8" s="8" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="H8" s="8" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="I8" s="8" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="J8" s="8" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K8" s="8" t="inlineStr">
-        <is>
-          <t>Db-Rhn zazo, ST Db-Rhn</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="8" t="inlineStr">
-        <is>
-          <t>Driebergen-Zeist</t>
-        </is>
-      </c>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>Ede-Wageningen</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="n">
-        <v>249</v>
-      </c>
-      <c r="D9" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="E9" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="F9" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="G9" s="8" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="H9" s="8" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="I9" s="8" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="J9" s="8" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K9" s="8" t="inlineStr">
-        <is>
-          <t>ST Db-Ed</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="8" t="inlineStr">
-        <is>
-          <t>Utrecht Centraal</t>
-        </is>
-      </c>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>Houten</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="E10" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="F10" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="G10" s="8" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="H10" s="8" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="I10" s="8" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="J10" s="8" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K10" s="8" t="inlineStr">
-        <is>
-          <t>Ut-Htn</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="8" t="inlineStr">
-        <is>
-          <t>Rhenen</t>
-        </is>
-      </c>
-      <c r="B11" s="8" t="inlineStr">
-        <is>
-          <t>Driebergen-Zeist</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="n">
-        <v>235</v>
-      </c>
-      <c r="D11" s="8" t="n">
-        <v>41</v>
-      </c>
-      <c r="E11" s="8" t="n">
-        <v>53</v>
-      </c>
-      <c r="F11" s="8" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="G11" s="8" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="H11" s="8" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="I11" s="8" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="J11" s="8" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K11" s="8" t="inlineStr">
-        <is>
-          <t>Db-Rhn zazo, ST Db-Rhn</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="8" t="inlineStr">
-        <is>
-          <t>Ede-Wageningen</t>
-        </is>
-      </c>
-      <c r="B12" s="8" t="inlineStr">
-        <is>
-          <t>Driebergen-Zeist</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="n">
-        <v>247</v>
-      </c>
-      <c r="D12" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="E12" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="F12" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="G12" s="8" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="H12" s="8" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="I12" s="8" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="J12" s="8" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K12" s="8" t="inlineStr">
-        <is>
-          <t>ST Db-Ed</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="8" t="inlineStr">
-        <is>
-          <t>Utrecht Centraal</t>
-        </is>
-      </c>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>Breukelen</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8" t="n">
-        <v>41</v>
-      </c>
-      <c r="E13" s="8" t="n">
-        <v>41</v>
-      </c>
-      <c r="F13" s="8" t="n">
-        <v>41</v>
-      </c>
-      <c r="G13" s="8" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="H13" s="8" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="I13" s="8" t="n">
-        <v>73.7</v>
-      </c>
-      <c r="J13" s="8" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K13" s="8" t="inlineStr">
-        <is>
-          <t>Ut-Bkl</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="8" t="inlineStr">
-        <is>
-          <t>Woerden</t>
-        </is>
-      </c>
-      <c r="B14" s="8" t="inlineStr">
-        <is>
-          <t>Utrecht Centraal</t>
-        </is>
-      </c>
-      <c r="C14" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8" t="n">
-        <v>45</v>
-      </c>
-      <c r="E14" s="8" t="n">
-        <v>45</v>
-      </c>
-      <c r="F14" s="8" t="n">
-        <v>45</v>
-      </c>
-      <c r="G14" s="8" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="H14" s="8" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="I14" s="8" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="J14" s="8" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K14" s="8" t="inlineStr">
-        <is>
-          <t>Ut-Wd</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="8" t="inlineStr">
-        <is>
-          <t>Utrecht Centraal</t>
-        </is>
-      </c>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>Woerden</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D15" s="8" t="n">
-        <v>45</v>
-      </c>
-      <c r="E15" s="8" t="n">
-        <v>45</v>
-      </c>
-      <c r="F15" s="8" t="n">
-        <v>45</v>
-      </c>
-      <c r="G15" s="8" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="H15" s="8" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="I15" s="8" t="n">
-        <v>83.7</v>
-      </c>
-      <c r="J15" s="8" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K15" s="8" t="inlineStr">
-        <is>
-          <t>Ut-Wd</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="8" t="inlineStr">
-        <is>
-          <t>Utrecht Centraal</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>Arnhem Centraal</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D16" s="8" t="n">
-        <v>80</v>
-      </c>
-      <c r="E16" s="8" t="n">
-        <v>80</v>
-      </c>
-      <c r="F16" s="8" t="n">
-        <v>80</v>
-      </c>
-      <c r="G16" s="8" t="n">
-        <v>57.2</v>
-      </c>
-      <c r="H16" s="8" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="I16" s="8" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="J16" s="8" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K16" s="8" t="inlineStr">
-        <is>
-          <t>Nachtnet zazo, Nachtnet vrza</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="8" t="inlineStr">
-        <is>
-          <t>Arnhem Centraal</t>
-        </is>
-      </c>
-      <c r="B17" s="8" t="inlineStr">
-        <is>
-          <t>Utrecht Centraal</t>
-        </is>
-      </c>
-      <c r="C17" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="D17" s="8" t="n">
-        <v>80</v>
-      </c>
-      <c r="E17" s="8" t="n">
-        <v>80</v>
-      </c>
-      <c r="F17" s="8" t="n">
-        <v>80</v>
-      </c>
-      <c r="G17" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="H17" s="8" t="n">
-        <v>24</v>
-      </c>
-      <c r="I17" s="8" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="J17" s="8" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K17" s="8" t="inlineStr">
-        <is>
-          <t>Nachtnet zazo, Nachtnet vrza</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="8" t="inlineStr">
-        <is>
-          <t>Rhenen</t>
-        </is>
-      </c>
-      <c r="B18" s="8" t="inlineStr">
-        <is>
-          <t>Utrecht Centraal</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D18" s="8" t="n">
-        <v>73</v>
-      </c>
-      <c r="E18" s="8" t="n">
-        <v>85</v>
-      </c>
-      <c r="F18" s="8" t="n">
-        <v>82</v>
-      </c>
-      <c r="G18" s="8" t="n">
-        <v>45.8</v>
-      </c>
-      <c r="H18" s="8" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="I18" s="8" t="n">
-        <v>59.4</v>
-      </c>
-      <c r="J18" s="8" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K18" s="8" t="inlineStr">
-        <is>
-          <t>Db-Rhn zazo, ST Db-Rhn</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="8" t="inlineStr">
-        <is>
-          <t>Utrecht Centraal</t>
-        </is>
-      </c>
-      <c r="B19" s="8" t="inlineStr">
-        <is>
-          <t>Amersfoort Centraal</t>
-        </is>
-      </c>
-      <c r="C19" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="8" t="n">
-        <v>63</v>
-      </c>
-      <c r="E19" s="8" t="n">
-        <v>63</v>
-      </c>
-      <c r="F19" s="8" t="n">
-        <v>63</v>
-      </c>
-      <c r="G19" s="8" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="H19" s="8" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="I19" s="8" t="n">
-        <v>108.6</v>
-      </c>
-      <c r="J19" s="8" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K19" s="8" t="inlineStr">
-        <is>
-          <t>Ut-Amf</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Hilversum</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Utrecht Centraal</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>44</v>
-      </c>
-      <c r="E20" t="n">
-        <v>44</v>
-      </c>
-      <c r="F20" t="n">
-        <v>44</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Geen data</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Ut-Hvs</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Utrecht Centraal</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Hilversum</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>2</v>
-      </c>
-      <c r="D21" t="n">
-        <v>44</v>
-      </c>
-      <c r="E21" t="n">
-        <v>44</v>
-      </c>
-      <c r="F21" t="n">
-        <v>44</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Geen data</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Ut-Hvs</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4689,15 +3812,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">{
-  "amersfoort": {
-    "amersfoort": {
+          <t>{
+  "amersfoort centraal": {
+    "amersfoort centraal": {
       "duration_min": 0.0,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "arnhem": {
+    "arnhem centraal": {
       "duration_min": 51.4,
       "distance_km": null,
       "duration_s": null,
@@ -4715,19 +3838,19 @@
       "duration_s": null,
       "distance_m": null
     },
-    "den_dolder": {
+    "den dolder": {
       "duration_min": 18.0,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "driebergen": {
+    "driebergen-zeist": {
       "duration_min": 19.7,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "ede": {
+    "ede-wageningen": {
       "duration_min": 37.5,
       "distance_km": null,
       "duration_s": null,
@@ -4739,6 +3862,12 @@
       "duration_s": null,
       "distance_m": null
     },
+    "hilversum": {
+      "duration_min": 32.3,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
     "houten": {
       "duration_min": 29.4,
       "distance_km": null,
@@ -4763,38 +3892,32 @@
       "duration_s": null,
       "distance_m": null
     },
-    "utrecht": {
+    "utrecht centraal": {
       "duration_min": 28.2,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "utrecht_overvecht": {
+    "utrecht overvecht": {
       "duration_min": 22.9,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "veenendaal": {
+    "veenendaal west": {
+      "duration_min": 32.7,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "veenendaal centrum": {
+      "duration_min": 32.3,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "veenendaal-de klomp": {
       "duration_min": 30.8,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal_centrum": {
-      "duration_min": 32.3,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal_klomp": {
-      "duration_min": 30.8,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal_west": {
-      "duration_min": 32.7,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
@@ -4806,14 +3929,14 @@
       "distance_m": null
     }
   },
-  "arnhem": {
-    "amersfoort": {
+  "arnhem centraal": {
+    "amersfoort centraal": {
       "duration_min": 51.2,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "arnhem": {
+    "arnhem centraal": {
       "duration_min": 0.0,
       "distance_km": null,
       "duration_s": null,
@@ -4831,19 +3954,19 @@
       "duration_s": null,
       "distance_m": null
     },
-    "den_dolder": {
+    "den dolder": {
       "duration_min": 55.3,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "driebergen": {
+    "driebergen-zeist": {
       "duration_min": 39.1,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "ede": {
+    "ede-wageningen": {
       "duration_min": 27.1,
       "distance_km": null,
       "duration_s": null,
@@ -4855,6 +3978,12 @@
       "duration_s": null,
       "distance_m": null
     },
+    "hilversum": {
+      "duration_min": 61.1,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
     "houten": {
       "duration_min": 51.2,
       "distance_km": null,
@@ -4879,38 +4008,32 @@
       "duration_s": null,
       "distance_m": null
     },
-    "utrecht": {
+    "utrecht centraal": {
       "duration_min": 56.0,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "utrecht_overvecht": {
+    "utrecht overvecht": {
       "duration_min": 51.6,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "veenendaal": {
+    "veenendaal west": {
+      "duration_min": 32.7,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "veenendaal centrum": {
+      "duration_min": 32.3,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "veenendaal-de klomp": {
       "duration_min": 27.6,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal_centrum": {
-      "duration_min": 32.3,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal_klomp": {
-      "duration_min": 27.6,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal_west": {
-      "duration_min": 32.7,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
@@ -4923,13 +4046,13 @@
     }
   },
   "bilthoven": {
-    "amersfoort": {
+    "amersfoort centraal": {
       "duration_min": 27.1,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "arnhem": {
+    "arnhem centraal": {
       "duration_min": 57.9,
       "distance_km": null,
       "duration_s": null,
@@ -4947,19 +4070,19 @@
       "duration_s": null,
       "distance_m": null
     },
-    "den_dolder": {
+    "den dolder": {
       "duration_min": 8.5,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "driebergen": {
+    "driebergen-zeist": {
       "duration_min": 19.4,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "ede": {
+    "ede-wageningen": {
       "duration_min": 44.0,
       "distance_km": null,
       "duration_s": null,
@@ -4971,6 +4094,12 @@
       "duration_s": null,
       "distance_m": null
     },
+    "hilversum": {
+      "duration_min": 22.9,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
     "houten": {
       "duration_min": 23.4,
       "distance_km": null,
@@ -4995,38 +4124,32 @@
       "duration_s": null,
       "distance_m": null
     },
-    "utrecht": {
+    "utrecht centraal": {
       "duration_min": 22.7,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "utrecht_overvecht": {
+    "utrecht overvecht": {
       "duration_min": 13.9,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "veenendaal": {
+    "veenendaal west": {
+      "duration_min": 39.1,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "veenendaal centrum": {
+      "duration_min": 38.7,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "veenendaal-de klomp": {
       "duration_min": 37.2,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal_centrum": {
-      "duration_min": 38.7,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal_klomp": {
-      "duration_min": 37.2,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal_west": {
-      "duration_min": 39.1,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
@@ -5039,13 +4162,13 @@
     }
   },
   "breukelen": {
-    "amersfoort": {
+    "amersfoort centraal": {
       "duration_min": 36.5,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "arnhem": {
+    "arnhem centraal": {
       "duration_min": 57.7,
       "distance_km": null,
       "duration_s": null,
@@ -5063,19 +4186,19 @@
       "duration_s": null,
       "distance_m": null
     },
-    "den_dolder": {
+    "den dolder": {
       "duration_min": 28.5,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "driebergen": {
+    "driebergen-zeist": {
       "duration_min": 22.8,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "ede": {
+    "ede-wageningen": {
       "duration_min": 43.8,
       "distance_km": null,
       "duration_s": null,
@@ -5087,6 +4210,12 @@
       "duration_s": null,
       "distance_m": null
     },
+    "hilversum": {
+      "duration_min": 26.8,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
     "houten": {
       "duration_min": 23.9,
       "distance_km": null,
@@ -5111,38 +4240,32 @@
       "duration_s": null,
       "distance_m": null
     },
-    "utrecht": {
+    "utrecht centraal": {
       "duration_min": 20.9,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "utrecht_overvecht": {
+    "utrecht overvecht": {
       "duration_min": 18.8,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "veenendaal": {
+    "veenendaal west": {
+      "duration_min": 39.0,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "veenendaal centrum": {
+      "duration_min": 38.5,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "veenendaal-de klomp": {
       "duration_min": 37.1,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal_centrum": {
-      "duration_min": 38.5,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal_klomp": {
-      "duration_min": 37.1,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal_west": {
-      "duration_min": 39.0,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
@@ -5154,14 +4277,14 @@
       "distance_m": null
     }
   },
-  "den_dolder": {
-    "amersfoort": {
+  "den dolder": {
+    "amersfoort centraal": {
       "duration_min": 21.9,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "arnhem": {
+    "arnhem centraal": {
       "duration_min": 56.2,
       "distance_km": null,
       "duration_s": null,
@@ -5179,19 +4302,19 @@
       "duration_s": null,
       "distance_m": null
     },
-    "den_dolder": {
+    "den dolder": {
       "duration_min": 0.0,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "driebergen": {
+    "driebergen-zeist": {
       "duration_min": 19.0,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "ede": {
+    "ede-wageningen": {
       "duration_min": 42.3,
       "distance_km": null,
       "duration_s": null,
@@ -5203,6 +4326,12 @@
       "duration_s": null,
       "distance_m": null
     },
+    "hilversum": {
+      "duration_min": 24.8,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
     "houten": {
       "duration_min": 25.1,
       "distance_km": null,
@@ -5227,38 +4356,32 @@
       "duration_s": null,
       "distance_m": null
     },
-    "utrecht": {
+    "utrecht centraal": {
       "duration_min": 23.9,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "utrecht_overvecht": {
+    "utrecht overvecht": {
       "duration_min": 15.8,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "veenendaal": {
+    "veenendaal west": {
+      "duration_min": 37.5,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "veenendaal centrum": {
+      "duration_min": 37.0,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "veenendaal-de klomp": {
       "duration_min": 35.6,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal_centrum": {
-      "duration_min": 37.0,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal_klomp": {
-      "duration_min": 35.6,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal_west": {
-      "duration_min": 37.5,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
@@ -5270,14 +4393,14 @@
       "distance_m": null
     }
   },
-  "driebergen": {
-    "amersfoort": {
+  "driebergen-zeist": {
+    "amersfoort centraal": {
       "duration_min": 23.2,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "arnhem": {
+    "arnhem centraal": {
       "duration_min": 40.3,
       "distance_km": null,
       "duration_s": null,
@@ -5295,19 +4418,19 @@
       "duration_s": null,
       "distance_m": null
     },
-    "den_dolder": {
+    "den dolder": {
       "duration_min": 18.9,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "driebergen": {
+    "driebergen-zeist": {
       "duration_min": 0.0,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "ede": {
+    "ede-wageningen": {
       "duration_min": 26.4,
       "distance_km": null,
       "duration_s": null,
@@ -5319,6 +4442,12 @@
       "duration_s": null,
       "distance_m": null
     },
+    "hilversum": {
+      "duration_min": 29.1,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
     "houten": {
       "duration_min": 15.3,
       "distance_km": null,
@@ -5343,38 +4472,32 @@
       "duration_s": null,
       "distance_m": null
     },
-    "utrecht": {
+    "utrecht centraal": {
       "duration_min": 21.2,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "utrecht_overvecht": {
+    "utrecht overvecht": {
       "duration_min": 16.8,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "veenendaal": {
+    "veenendaal west": {
+      "duration_min": 21.5,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "veenendaal centrum": {
+      "duration_min": 21.1,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "veenendaal-de klomp": {
       "duration_min": 19.7,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal_centrum": {
-      "duration_min": 21.1,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal_klomp": {
-      "duration_min": 19.7,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal_west": {
-      "duration_min": 21.5,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
@@ -5386,14 +4509,14 @@
       "distance_m": null
     }
   },
-  "ede": {
-    "amersfoort": {
+  "ede-wageningen": {
+    "amersfoort centraal": {
       "duration_min": 37.9,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "arnhem": {
+    "arnhem centraal": {
       "duration_min": 27.4,
       "distance_km": null,
       "duration_s": null,
@@ -5411,19 +4534,19 @@
       "duration_s": null,
       "distance_m": null
     },
-    "den_dolder": {
+    "den dolder": {
       "duration_min": 42.0,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "driebergen": {
+    "driebergen-zeist": {
       "duration_min": 25.8,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "ede": {
+    "ede-wageningen": {
       "duration_min": 0.0,
       "distance_km": null,
       "duration_s": null,
@@ -5435,6 +4558,12 @@
       "duration_s": null,
       "distance_m": null
     },
+    "hilversum": {
+      "duration_min": 47.8,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
     "houten": {
       "duration_min": 38.0,
       "distance_km": null,
@@ -5459,38 +4588,32 @@
       "duration_s": null,
       "distance_m": null
     },
-    "utrecht": {
+    "utrecht centraal": {
       "duration_min": 42.6,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "utrecht_overvecht": {
+    "utrecht overvecht": {
       "duration_min": 38.3,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "veenendaal": {
+    "veenendaal west": {
+      "duration_min": 19.4,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "veenendaal centrum": {
+      "duration_min": 19.0,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "veenendaal-de klomp": {
       "duration_min": 14.3,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal_centrum": {
-      "duration_min": 19.0,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal_klomp": {
-      "duration_min": 14.3,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal_west": {
-      "duration_min": 19.4,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
@@ -5503,13 +4626,13 @@
     }
   },
   "geldermalsen": {
-    "amersfoort": {
+    "amersfoort centraal": {
       "duration_min": 40.7,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "arnhem": {
+    "arnhem centraal": {
       "duration_min": 49.7,
       "distance_km": null,
       "duration_s": null,
@@ -5527,19 +4650,19 @@
       "duration_s": null,
       "distance_m": null
     },
-    "den_dolder": {
+    "den dolder": {
       "duration_min": 35.1,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "driebergen": {
+    "driebergen-zeist": {
       "duration_min": 27.6,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "ede": {
+    "ede-wageningen": {
       "duration_min": 46.5,
       "distance_km": null,
       "duration_s": null,
@@ -5551,6 +4674,12 @@
       "duration_s": null,
       "distance_m": null
     },
+    "hilversum": {
+      "duration_min": 41.7,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
     "houten": {
       "duration_min": 25.9,
       "distance_km": null,
@@ -5575,57 +4704,167 @@
       "duration_s": null,
       "distance_m": null
     },
-    "utrecht": {
+    "utrecht centraal": {
       "duration_min": 31.9,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "utrecht_overvecht": {
+    "utrecht overvecht": {
       "duration_min": 29.4,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "veenendaal": {
+    "veenendaal west": {
+      "duration_min": 38.2,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "veenendaal centrum": {
+      "duration_min": 36.5,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "veenendaal-de klomp": {
       "duration_min": 39.7,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal_centrum": {
-      "duration_min": 36.5,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal_klomp": {
-      "duration_min": 39.7,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal_west": {
-      "duration_min": 38.2,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
     "woerden": {
       "duration_min": 33.7,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    }
+  },
+  "hilversum": {
+    "amersfoort centraal": {
+      "duration_min": 30.5,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "arnhem centraal": {
+      "duration_min": 65.6,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "bilthoven": {
+      "duration_min": 24.8,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "breukelen": {
+      "duration_min": 27.1,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "den dolder": {
+      "duration_min": 25.5,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "driebergen-zeist": {
+      "duration_min": 30.6,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "ede-wageningen": {
+      "duration_min": 51.7,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "geldermalsen": {
+      "duration_min": 43.5,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "hilversum": {
+      "duration_min": 0.0,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "houten": {
+      "duration_min": 32.1,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "houten_vinex": {
+      "duration_min": 33.8,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "maarn": {
+      "duration_min": 34.8,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "rhenen": {
+      "duration_min": 56.2,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "utrecht centraal": {
+      "duration_min": 31.5,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "utrecht overvecht": {
+      "duration_min": 21.9,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "veenendaal west": {
+      "duration_min": 46.9,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "veenendaal centrum": {
+      "duration_min": 46.5,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "veenendaal-de klomp": {
+      "duration_min": 45.0,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "woerden": {
+      "duration_min": 38.0,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     }
   },
   "houten": {
-    "amersfoort": {
+    "amersfoort centraal": {
       "duration_min": 30.1,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "arnhem": {
+    "arnhem centraal": {
       "duration_min": 51.7,
       "distance_km": null,
       "duration_s": null,
@@ -5643,19 +4882,19 @@
       "duration_s": null,
       "distance_m": null
     },
-    "den_dolder": {
+    "den dolder": {
       "duration_min": 24.4,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "driebergen": {
+    "driebergen-zeist": {
       "duration_min": 16.1,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "ede": {
+    "ede-wageningen": {
       "duration_min": 37.8,
       "distance_km": null,
       "duration_s": null,
@@ -5667,6 +4906,12 @@
       "duration_s": null,
       "distance_m": null
     },
+    "hilversum": {
+      "duration_min": 31.1,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
     "houten": {
       "duration_min": 0.0,
       "distance_km": null,
@@ -5691,38 +4936,32 @@
       "duration_s": null,
       "distance_m": null
     },
-    "utrecht": {
+    "utrecht centraal": {
       "duration_min": 22.9,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "utrecht_overvecht": {
+    "utrecht overvecht": {
       "duration_min": 18.8,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "veenendaal": {
+    "veenendaal west": {
+      "duration_min": 33.0,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "veenendaal centrum": {
+      "duration_min": 32.5,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "veenendaal-de klomp": {
       "duration_min": 31.1,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal_centrum": {
-      "duration_min": 32.5,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal_klomp": {
-      "duration_min": 31.1,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal_west": {
-      "duration_min": 33.0,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
@@ -5735,13 +4974,13 @@
     }
   },
   "houten_vinex": {
-    "amersfoort": {
+    "amersfoort centraal": {
       "duration_min": 31.6,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "arnhem": {
+    "arnhem centraal": {
       "duration_min": 53.6,
       "distance_km": null,
       "duration_s": null,
@@ -5759,19 +4998,19 @@
       "duration_s": null,
       "distance_m": null
     },
-    "den_dolder": {
+    "den dolder": {
       "duration_min": 26.0,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "driebergen": {
+    "driebergen-zeist": {
       "duration_min": 17.9,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "ede": {
+    "ede-wageningen": {
       "duration_min": 39.7,
       "distance_km": null,
       "duration_s": null,
@@ -5783,6 +5022,12 @@
       "duration_s": null,
       "distance_m": null
     },
+    "hilversum": {
+      "duration_min": 32.6,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
     "houten": {
       "duration_min": 5.9,
       "distance_km": null,
@@ -5807,38 +5052,32 @@
       "duration_s": null,
       "distance_m": null
     },
-    "utrecht": {
+    "utrecht centraal": {
       "duration_min": 24.7,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "utrecht_overvecht": {
+    "utrecht overvecht": {
       "duration_min": 20.4,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "veenendaal": {
+    "veenendaal west": {
+      "duration_min": 34.8,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "veenendaal centrum": {
+      "duration_min": 34.4,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "veenendaal-de klomp": {
       "duration_min": 33.0,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal_centrum": {
-      "duration_min": 34.4,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal_klomp": {
-      "duration_min": 33.0,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal_west": {
-      "duration_min": 34.8,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
@@ -5851,13 +5090,13 @@
     }
   },
   "maarn": {
-    "amersfoort": {
+    "amersfoort centraal": {
       "duration_min": 17.8,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "arnhem": {
+    "arnhem centraal": {
       "duration_min": 37.2,
       "distance_km": null,
       "duration_s": null,
@@ -5875,19 +5114,19 @@
       "duration_s": null,
       "distance_m": null
     },
-    "den_dolder": {
+    "den dolder": {
       "duration_min": 19.8,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "driebergen": {
+    "driebergen-zeist": {
       "duration_min": 8.7,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "ede": {
+    "ede-wageningen": {
       "duration_min": 23.3,
       "distance_km": null,
       "duration_s": null,
@@ -5899,6 +5138,12 @@
       "duration_s": null,
       "distance_m": null
     },
+    "hilversum": {
+      "duration_min": 33.4,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
     "houten": {
       "duration_min": 20.8,
       "distance_km": null,
@@ -5923,38 +5168,32 @@
       "duration_s": null,
       "distance_m": null
     },
-    "utrecht": {
+    "utrecht centraal": {
       "duration_min": 25.5,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "utrecht_overvecht": {
+    "utrecht overvecht": {
       "duration_min": 21.1,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "veenendaal": {
+    "veenendaal west": {
+      "duration_min": 18.5,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "veenendaal centrum": {
+      "duration_min": 18.0,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
+    "veenendaal-de klomp": {
       "duration_min": 16.6,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal_centrum": {
-      "duration_min": 18.0,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal_klomp": {
-      "duration_min": 16.6,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal_west": {
-      "duration_min": 18.5,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
@@ -5967,13 +5206,13 @@
     }
   },
   "rhenen": {
-    "amersfoort": {
+    "amersfoort centraal": {
       "duration_min": 41.0,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "arnhem": {
+    "arnhem centraal": {
       "duration_min": 36.0,
       "distance_km": null,
       "duration_s": null,
@@ -5991,19 +5230,19 @@
       "duration_s": null,
       "distance_m": null
     },
-    "den_dolder": {
+    "den dolder": {
       "duration_min": 45.1,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "driebergen": {
+    "driebergen-zeist": {
       "duration_min": 28.9,
       "distance_km": null,
       "duration_s": null,
       "distance_m": null
     },
-    "ede": {
+    "ede-wageningen": {
       "duration_min": 23.2,
       "distance_km": null,
       "duration_s": null,
@@ -6015,6 +5254,12 @@
       "duration_s": null,
       "distance_m": null
     },
+    "hilversum": {
+      "duration_min": 53.9,
+      "distance_km": null,
+      "duration_s": null,
+      "distance_m": null
+    },
     "houten": {
       "duration_min": 41.1,
       "distance_km": null,
@@ -6034,156 +5279,7 @@
       "distance_m": null
     },
     "rhenen": {
-      "duration_min": 0.0,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "utrecht": {
-      "duration_min": 45.8,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "utrecht_overvecht": {
-      "duration_min": 41.4,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal": {
-      "duration_min": 16.4,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal_centrum": {
-      "duration_min": 13.2,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal_klomp": {
-      "duration_min": 16.4,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal_west": {
-      "duration_min": 14.9,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "woerden": {
-      "duration_min": 48.0,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    }
-  },
-  "utrecht": {
-    "amersfoort": {
-      "duration_min": 30.2,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "arnhem": {
-      "duration_min": 57.2,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "bilthoven": {
-      "duration_min": 21.5,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "breukelen": {
-      "duration_min": 23.6,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "den_dolder": {
-      "duration_min": 24.5,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "driebergen": {
-      "duration_min": 22.2,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "ede": {
-      "duration_min": 43.3,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "geldermalsen": {
-      "duration_min": 33.7,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "houten": {
-      "duration_min": 23.3,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "houten_vinex": {
-      "duration_min": 25.2,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "maarn": {
-      "duration_min": 26.4,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "rhenen": {
-      "duration_min": 47.8,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "utrecht": {
-      "duration_min": 0.0,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "utrecht_overvecht": {
-      "duration_min": 12.3,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal": {
-      "duration_min": 36.5,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal_centrum": {
-      "duration_min": 38.0,
-      "distance_km": null,
-      "duration_s": null,
-      "distance_m": null
-    },
-    "veenendaal_klomp": {
-      "duration_min": 36.5,
-      "distance_km": null,
-      "duration_s": null,
-  </t>
+      "du</t>
         </is>
       </c>
     </row>
